--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86803.82149736315</v>
+        <v>15995940.29830053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86803.82149736315</v>
+        <v>15995940.29830053</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7995.369337102443</v>
+        <v>911652.0406952321</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7995.369337102443</v>
+        <v>911652.0406952321</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265936218.893637</v>
+        <v>51777824.21886809</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10699.63138959038</v>
+        <v>1218378.435730218</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20207.00126828659</v>
+        <v>2254267.740423943</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29714.37114698279</v>
+        <v>3290157.04511767</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39466.02936634772</v>
+        <v>4340463.263821563</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49145.6003811863</v>
+        <v>5377700.345512331</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58312.6608744979</v>
+        <v>6393206.981090351</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67684.7255764203</v>
+        <v>7430444.062781114</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77056.79027834268</v>
+        <v>8467681.144471876</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86299.61867804284</v>
+        <v>9434212.193967085</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95268.01702604169</v>
+        <v>10464758.11639741</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103801.0710282499</v>
+        <v>11422230.73252885</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112632.149338412</v>
+        <v>12455706.13609307</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121508.9528840334</v>
+        <v>13489260.78376139</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130851.1233478608</v>
+        <v>14453514.97317201</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140710.5676715304</v>
+        <v>15343705.3732465</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>371</v>
@@ -27055,7 +27055,7 @@
         <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>279</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
